--- a/data/ccc.xlsx
+++ b/data/ccc.xlsx
@@ -53,16 +53,16 @@
     <t xml:space="preserve">rho[c]:~0.99[(0.98-1)]</t>
   </si>
   <si>
-    <t xml:space="preserve">Rater 1</t>
+    <t xml:space="preserve">User 1</t>
   </si>
   <si>
     <t xml:space="preserve">rho[c]:~0.99[(0.97-0.99)]</t>
   </si>
   <si>
-    <t xml:space="preserve">Rater 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rater 3</t>
+    <t xml:space="preserve">User 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 3</t>
   </si>
   <si>
     <t xml:space="preserve">Olive peacock eye</t>
